--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2279.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2279.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.150682212219605</v>
+        <v>1.197588562965393</v>
       </c>
       <c r="B1">
-        <v>2.864204539694482</v>
+        <v>2.484435796737671</v>
       </c>
       <c r="C1">
-        <v>4.508993179652878</v>
+        <v>4.242732048034668</v>
       </c>
       <c r="D1">
-        <v>3.070842847075353</v>
+        <v>2.08942174911499</v>
       </c>
       <c r="E1">
-        <v>1.218087666890293</v>
+        <v>1.182473301887512</v>
       </c>
     </row>
   </sheetData>
